--- a/excel/Indicativo - Futuro Anteriore.xlsx
+++ b/excel/Indicativo - Futuro Anteriore.xlsx
@@ -181,7 +181,7 @@
     <t>noi</t>
   </si>
   <si>
-    <t>saremo uscite/usicti</t>
+    <t>saremo uscite/usciti</t>
   </si>
   <si>
     <t>Quando sarai andata a Roma, ti farò una telefonata.</t>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
